--- a/biology/Botanique/Ancolie/Ancolie.xlsx
+++ b/biology/Botanique/Ancolie/Ancolie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aquilegia
 Les Ancolies, plantes à fleurs du genre Aquilegia et de la famille des renonculacées. Ce sont des  vivaces. Les fleurs, au sommet d'un faisceau de longues tiges, sont élégantes, originales dans leur forme et offrent une large palette de coloris comprenant le blanc, le bleu clair, le jaune pâle, le rose, le brun, le lie-de-vin et le bleu.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Forme : tige de 20 à 100 cm de haut selon l'espèce.
 Feuilles : de couleur vert parfois teinté de bleu turquoise.
@@ -546,7 +560,9 @@
           <t>Espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On en compte une soixantaine d'espèces dans l'hémisphère nord, certaines horticoles (par exemple l'ancolie des jardins, l'ancolie hybride de Coerula ou l'ancolie à fleur dorée) ou botaniques (telles que l'ancolie des Alpes (Aquilegia alpina) grandes fleurs d'un bleu intense, l'ancolie commune  (Aquilegia vulgaris) aux fleurs bleu violacé, l'ancolie noirâtre  (Aquilegia atrata) aux fleurs bordeaux, l'ancolie du Canada (Aquilegia canadensis) fleurs rouges et jaunes ou l'ancolie des Pyrénées (Aquilegia pyrenaica)).
 	Ancolie commune
@@ -560,8 +576,43 @@
 			Fleur d'Aquilegia saximontana.
 			Fleur d'Aquilegia formosa.
 			Fruits ouverts d'ancolie. Leur longueur est d'environ 1 cm.
-Liste des espèces
-Voici une liste non exhaustive d'espèces, selon Catalogue of Life                                   (1 mai 2013)[2] et ITIS      (1 mai 2013)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ancolie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancolie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces et variétés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici une liste non exhaustive d'espèces, selon Catalogue of Life                                   (1 mai 2013) et ITIS      (1 mai 2013) :
 Aquilegia alpina L.
 Aquilegia atrovinosa
 Aquilegia barnebyi Munz
@@ -610,36 +661,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ancolie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ancolie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Calendrier républicain</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dans le calendrier républicain, l'Ancolie était le nom attribué au 6e jour du mois de floréal[4], généralement chaque 25 avril du calendrier grégorien.</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -661,12 +682,46 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, l'Ancolie était le nom attribué au 6e jour du mois de floréal, généralement chaque 25 avril du calendrier grégorien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ancolie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancolie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Langage des fleurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le langage des fleurs, l'ancolie symbolise la folie[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, l'ancolie symbolise la folie.
 </t>
         </is>
       </c>
